--- a/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
+++ b/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
@@ -568,10 +568,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,7 +897,7 @@
   <dimension ref="A1:S515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1103,7 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>11</v>
       </c>
       <c r="I5">

--- a/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
+++ b/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>December</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -897,7 +894,7 @@
   <dimension ref="A1:S515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,29 +974,29 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <v>4</v>
@@ -1127,10 +1124,10 @@
       <c r="O5">
         <v>5</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>16</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>42</v>
       </c>
       <c r="R5">

--- a/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
+++ b/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IssueDatesOrdered!$A$1:$E$515</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,29 +977,29 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
       <c r="P2" s="2">
         <v>4</v>
@@ -1100,28 +1103,28 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>11</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
       <c r="J5" s="2">
         <v>36</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="2">
         <v>57</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>17</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>5</v>
       </c>
       <c r="P5" s="2">
@@ -1133,7 +1136,7 @@
       <c r="R5">
         <v>13</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>8</v>
       </c>
     </row>

--- a/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
+++ b/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9811,6 +9811,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E515"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
+++ b/GhTorrentSQL Data/IssueDatesOrdered+IssuesPerMonth.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IssueDatesOrdered" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IssueDatesOrdered!$A$1:$E$515</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -894,10 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D441" sqref="D441:D447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1173,8 +1175,47 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2013</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1190,8 +1231,20 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +1329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1871,7 +1924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +2009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +2026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2211,7 +2264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2381,7 +2434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +2519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2536,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2534,7 +2587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +2604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2687,7 +2740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +2774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2791,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2755,7 +2808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2789,7 +2842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2806,7 +2859,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +2910,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2944,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +2961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2925,7 +2978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2995,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +3029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +3046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3080,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3114,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3095,7 +3148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3112,7 +3165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3129,7 +3182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3146,7 +3199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3163,7 +3216,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3180,7 +3233,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3301,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3282,7 +3335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3299,7 +3352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3369,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3350,7 +3403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3384,7 +3437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3454,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3418,7 +3471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3488,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3452,7 +3505,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3486,7 +3539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3503,7 +3556,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3573,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3537,7 +3590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +3607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3622,7 +3675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -3639,7 +3692,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +3709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3760,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +3794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3775,7 +3828,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -3792,7 +3845,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +3879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -3843,7 +3896,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -3877,7 +3930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3964,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -3945,7 +3998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +4015,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -3979,7 +4032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +4049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -4013,7 +4066,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -4047,7 +4100,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4117,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4134,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -4098,7 +4151,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -4115,7 +4168,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -4149,7 +4202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -4183,7 +4236,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4253,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -4217,7 +4270,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4287,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -4268,7 +4321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4338,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4302,7 +4355,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4372,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4389,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4406,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4423,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -4404,7 +4457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4474,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4491,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -4472,7 +4525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -4523,7 +4576,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4610,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4627,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +4644,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -4608,7 +4661,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4678,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4695,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -4659,7 +4712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4729,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -4710,7 +4763,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4780,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -4744,7 +4797,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -4761,7 +4814,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4831,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -4795,7 +4848,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -4812,7 +4865,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4829,7 +4882,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +4916,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -4880,7 +4933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -4897,7 +4950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -4914,7 +4967,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +4984,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +5001,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +5018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +5035,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -4999,7 +5052,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5016,7 +5069,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -5033,7 +5086,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -5050,7 +5103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5120,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +5137,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -5118,7 +5171,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -5135,7 +5188,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -5152,7 +5205,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -5169,7 +5222,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5186,7 +5239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -5203,7 +5256,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +5273,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5290,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5307,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -5271,7 +5324,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +5358,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5322,7 +5375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5392,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5409,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -5373,7 +5426,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5390,7 +5443,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -5407,7 +5460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -5424,7 +5477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5494,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -5458,7 +5511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5528,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -5492,7 +5545,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -5509,7 +5562,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -5526,7 +5579,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -5560,7 +5613,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5630,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -5594,7 +5647,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -5611,7 +5664,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5681,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -5645,7 +5698,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5715,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5679,7 +5732,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -5696,7 +5749,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -5713,7 +5766,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -5730,7 +5783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -5747,7 +5800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -5764,7 +5817,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -5781,7 +5834,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -5798,7 +5851,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -5815,7 +5868,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -5832,7 +5885,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -5849,7 +5902,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -5866,7 +5919,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -5883,7 +5936,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -5900,7 +5953,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5917,7 +5970,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -5934,7 +5987,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5951,7 +6004,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -5968,7 +6021,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -5985,7 +6038,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -6002,7 +6055,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -6019,7 +6072,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -6036,7 +6089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -6053,7 +6106,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -6070,7 +6123,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -6087,7 +6140,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -6104,7 +6157,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -6121,7 +6174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -6138,7 +6191,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -6155,7 +6208,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +6225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -6189,7 +6242,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -6206,7 +6259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -6223,7 +6276,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -6240,7 +6293,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -6257,7 +6310,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6274,7 +6327,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -6291,7 +6344,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -6308,7 +6361,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -6325,7 +6378,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -6342,7 +6395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -6359,7 +6412,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -6376,7 +6429,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -6393,7 +6446,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -6410,7 +6463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -6427,7 +6480,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -6444,7 +6497,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -6461,7 +6514,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6531,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +6548,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -6512,7 +6565,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -6529,7 +6582,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -6546,7 +6599,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -6563,7 +6616,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +6633,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -6597,7 +6650,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -6614,7 +6667,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -6631,7 +6684,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -6648,7 +6701,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6718,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -6682,7 +6735,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -6699,7 +6752,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -6716,7 +6769,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -6733,7 +6786,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +6803,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -6767,7 +6820,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -6784,7 +6837,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -6801,7 +6854,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6871,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -6835,7 +6888,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -6852,7 +6905,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -6869,7 +6922,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -6886,7 +6939,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -6903,7 +6956,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -6920,7 +6973,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -6937,7 +6990,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6954,7 +7007,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -6971,7 +7024,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -6988,7 +7041,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -7005,7 +7058,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -7022,7 +7075,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -7039,7 +7092,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -7055,8 +7108,11 @@
       <c r="E353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -7073,7 +7129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -7090,7 +7146,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -7107,7 +7163,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -7124,7 +7180,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -7141,7 +7197,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -7158,7 +7214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -7175,7 +7231,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7248,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -7209,7 +7265,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -7226,7 +7282,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -7243,7 +7299,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -7260,7 +7316,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -7277,7 +7333,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -7294,7 +7350,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -7311,7 +7367,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -7328,7 +7384,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -7345,7 +7401,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -7362,7 +7418,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -7379,7 +7435,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -7396,7 +7452,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -7413,7 +7469,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -7430,7 +7486,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -7447,7 +7503,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -7464,7 +7520,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -7481,7 +7537,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -7498,7 +7554,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -7515,7 +7571,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -7532,7 +7588,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -7549,7 +7605,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -7566,7 +7622,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -7583,7 +7639,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -7600,7 +7656,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -7617,7 +7673,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -7634,7 +7690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7651,7 +7707,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7668,7 +7724,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7685,7 +7741,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7702,7 +7758,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7719,7 +7775,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -7736,7 +7792,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -7753,7 +7809,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -7770,7 +7826,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -7787,7 +7843,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -7804,7 +7860,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -7821,7 +7877,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -7838,7 +7894,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -7855,7 +7911,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -7872,7 +7928,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -7889,7 +7945,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -7906,7 +7962,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -7923,7 +7979,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -7940,7 +7996,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -7957,7 +8013,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -7974,7 +8030,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -7991,7 +8047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -8008,7 +8064,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -8025,7 +8081,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -8042,7 +8098,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -8059,7 +8115,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -8076,7 +8132,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -8093,7 +8149,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -8110,7 +8166,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -8127,7 +8183,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -8144,7 +8200,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -8161,7 +8217,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -8178,7 +8234,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -8195,7 +8251,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -8212,7 +8268,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -8229,7 +8285,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -8246,7 +8302,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -8263,7 +8319,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -8280,7 +8336,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -8297,7 +8353,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -8314,7 +8370,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -8331,7 +8387,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -8348,7 +8404,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -8365,7 +8421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8438,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -8399,7 +8455,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -8416,7 +8472,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -8433,7 +8489,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -8450,7 +8506,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -8467,7 +8523,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -8484,7 +8540,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -8501,7 +8557,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -8518,7 +8574,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -8654,7 +8710,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -8671,7 +8727,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -8688,7 +8744,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -8705,7 +8761,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -8722,7 +8778,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -8739,7 +8795,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -8756,7 +8812,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -8773,7 +8829,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -8790,7 +8846,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -8807,7 +8863,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -8824,7 +8880,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -8841,7 +8897,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -8858,7 +8914,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -8875,7 +8931,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -8892,7 +8948,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -8909,7 +8965,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -8926,7 +8982,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -8943,7 +8999,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -8960,7 +9016,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -8977,7 +9033,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -8994,7 +9050,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -9011,7 +9067,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -9028,7 +9084,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -9045,7 +9101,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -9062,7 +9118,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -9079,7 +9135,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -9096,7 +9152,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -9113,7 +9169,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -9130,7 +9186,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -9147,7 +9203,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -9164,7 +9220,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -9181,7 +9237,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -9198,7 +9254,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -9215,7 +9271,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -9232,7 +9288,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -9249,7 +9305,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -9266,7 +9322,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>5</v>
       </c>
@@ -9283,7 +9339,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>5</v>
       </c>
@@ -9300,7 +9356,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -9317,7 +9373,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -9334,7 +9390,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>5</v>
       </c>
@@ -9351,7 +9407,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -9368,7 +9424,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -9385,7 +9441,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -9402,7 +9458,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>5</v>
       </c>
@@ -9419,7 +9475,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -9436,7 +9492,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -9453,7 +9509,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>5</v>
       </c>
@@ -9470,7 +9526,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -9487,7 +9543,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -9504,7 +9560,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>5</v>
       </c>
@@ -9521,7 +9577,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>5</v>
       </c>
@@ -9538,7 +9594,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -9555,7 +9611,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -9572,7 +9628,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -9589,7 +9645,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -9606,7 +9662,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -9623,7 +9679,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -9640,7 +9696,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>5</v>
       </c>
@@ -9657,7 +9713,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>5</v>
       </c>
@@ -9674,7 +9730,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>5</v>
       </c>
@@ -9691,7 +9747,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -9708,7 +9764,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -9725,7 +9781,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>5</v>
       </c>
@@ -9742,7 +9798,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>5</v>
       </c>
@@ -9759,7 +9815,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>5</v>
       </c>
@@ -9776,7 +9832,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>5</v>
       </c>
@@ -9793,7 +9849,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9867,184 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E515"/>
+  <autoFilter ref="A1:E515">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2013" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>41434.929166666669</v>
+      </c>
+      <c r="B1" s="1">
+        <v>41434.929166666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>41436.46597222222</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41436.46597222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>41436.762499999997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41436.762499999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>41441.408333333333</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41441.408333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41448.386805555558</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41448.386805555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41449.581250000003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41449.581250000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41453.481249999997</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41453.481249999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41457.702777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41464.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41465.048611111109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41465.329861111109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41466.401388888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41469.722222222219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41471.026388888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41471.245833333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41473.447222222225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41475.586805555555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41477.463888888888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41477.493750000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41478.446527777778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41478.522916666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41478.588194444441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41479.685416666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41481.365972222222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41482.309027777781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41485.287499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41485.289583333331</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>